--- a/dtpu_configurations/only_integer16/80mhz/mxu_12x12/power.xlsx
+++ b/dtpu_configurations/only_integer16/80mhz/mxu_12x12/power.xlsx
@@ -175,22 +175,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.037861477583646774</v>
+        <v>0.04011237248778343</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.017308121547102928</v>
+        <v>0.017987513914704323</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.011771056801080704</v>
+        <v>0.011631176806986332</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.011136924847960472</v>
+        <v>0.014233378693461418</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>2.556803810875863E-4</v>
+        <v>2.3576710373163223E-4</v>
       </c>
       <c r="G2" t="n" s="4">
-        <v>0.0024927756749093533</v>
+        <v>0.002413670066744089</v>
       </c>
       <c r="H2" t="n" s="4">
         <v>0.0014924227725714445</v>
@@ -199,10 +199,10 @@
         <v>1.2604483366012573</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12771809101104736</v>
+        <v>0.12776559591293335</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4704949855804443</v>
+        <v>1.4763305187225342</v>
       </c>
     </row>
   </sheetData>
